--- a/biology/Zoologie/Dastilbe/Dastilbe.xlsx
+++ b/biology/Zoologie/Dastilbe/Dastilbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dastilbe crandalli
-Dastilbe est un genre éteint de poissons osseux de l’ordre des Gonorynchiformes. Il vivait lors de l’Aptien (≃ −125,0 à ≃ −113,0 Ma) et a été décrit par David Starr Jordan en 1910[1]. Son espèce type est Dastilbe crandalli.
+Dastilbe est un genre éteint de poissons osseux de l’ordre des Gonorynchiformes. Il vivait lors de l’Aptien (≃ −125,0 à ≃ −113,0 Ma) et a été décrit par David Starr Jordan en 1910. Son espèce type est Dastilbe crandalli.
 Ses restes fossiles ont été mis au jour en Amérique du Sud et en Afrique.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>† Dastilbe crandalli Jordan, 1910[2] – espèce type
-† Dastilbe elongatus Silva Santos, 1947[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>† Dastilbe crandalli Jordan, 1910 – espèce type
+† Dastilbe elongatus Silva Santos, 1947</t>
         </is>
       </c>
     </row>
